--- a/Tasks List.xlsx
+++ b/Tasks List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD1D3CB-426E-4E1E-886D-4AAD6C477FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2149A9-52F7-46CC-B1D5-34CA19FF84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,52 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <r>
-      <t>Using EC2 Instance Connect:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Set up EC2 Instance Connect for secure and easy SSH access.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Automating EC2 Deployments with CloudFormation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use CloudFormation templates to automate the provisioning of EC2 resources.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monitoring EC2 Instances with CloudWatch:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Set up CloudWatch alarms and metrics to monitor your EC2 performance.</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <r>
       <t>Creating and Managing EC2 Instance Profiles:</t>
@@ -145,6 +100,12 @@
   </si>
   <si>
     <t>Setting Up EC2 Instances with Elastic IPs: Allocate and associate Elastic IPs to ensure a static IP for your instances.</t>
+  </si>
+  <si>
+    <t>Using EC2 Instance Connect: Set up EC2 Instance Connect for secure and easy SSH access.</t>
+  </si>
+  <si>
+    <t>Monitoring EC2 Instances with CloudWatch: Set up CloudWatch alarms and metrics to monitor your EC2 performance.</t>
   </si>
 </sst>
 </file>
@@ -491,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,18 +467,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -525,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -536,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -547,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -558,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -569,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -580,39 +541,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
